--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/OEW001.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/OEW001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK\nts.uk\uk.com\com.file\nts.uk.file.com.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA2F322-7202-451B-9D4F-8550D0B289D7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3746E-1072-4146-956A-1B874FFC7CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{346782B5-7FD7-417C-B439-A78319037E87}"/>
   </bookViews>
@@ -282,8 +282,8 @@
     <definedName name="PG田中" localSheetId="0">#REF!</definedName>
     <definedName name="PG田中">#REF!</definedName>
     <definedName name="PIV更新">[2]!PIV更新</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">車両日誌!$A$1:$J$4</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">車両日誌!$1:$2</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">車両日誌!#REF!</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">車両日誌!#REF!</definedName>
     <definedName name="PrintDaicho" localSheetId="0">[21]!PrintDaicho</definedName>
     <definedName name="PrintDaicho">[21]!PrintDaicho</definedName>
     <definedName name="QuitDaicho" localSheetId="0">[21]!QuitDaicho</definedName>
@@ -588,11 +588,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
-    <numFmt numFmtId="165" formatCode="0_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,13 +612,6 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -715,15 +707,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -745,18 +730,6 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -772,14 +745,17 @@
     <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -46141,72 +46117,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630B207A-625C-4D64-A56D-31A5A83FEE2D}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.600000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="12.21875" style="14" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="14" customWidth="1"/>
-    <col min="5" max="5" width="7.44140625" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.77734375" style="14" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" style="14" customWidth="1"/>
-    <col min="9" max="233" width="7.5546875" style="3" customWidth="1"/>
-    <col min="234" max="16384" width="9" style="3"/>
+    <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="9.5546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" style="13" customWidth="1"/>
+    <col min="7" max="8" width="7.5546875" style="13" customWidth="1"/>
+    <col min="9" max="233" width="7.5546875" style="14" customWidth="1"/>
+    <col min="234" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A1" s="15"/>
+      <c r="B1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
+    <row r="2" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A3" s="3"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1">
-      <c r="A4" s="15"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
+    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A4" s="8"/>
+      <c r="B4" s="9"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1">
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/OEW001.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/OEW001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK\nts.uk\uk.com\com.file\nts.uk.file.com.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF3746E-1072-4146-956A-1B874FFC7CB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37E6B1-49D5-4B11-B43A-000E9DB39441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{346782B5-7FD7-417C-B439-A78319037E87}"/>
   </bookViews>
@@ -46121,20 +46121,20 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18.600000000000001" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
     <col min="2" max="2" width="12.21875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="13" customWidth="1"/>
     <col min="4" max="4" width="12.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="14.88671875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="13" customWidth="1"/>
     <col min="7" max="8" width="7.5546875" style="13" customWidth="1"/>
     <col min="9" max="233" width="7.5546875" style="14" customWidth="1"/>
     <col min="234" max="16384" width="9" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="1" spans="1:6" ht="18" customHeight="1" thickBot="1">
       <c r="A1" s="15"/>
       <c r="B1" s="16" t="s">
         <v>0</v>
@@ -46144,7 +46144,7 @@
       <c r="E1" s="15"/>
       <c r="F1" s="15"/>
     </row>
-    <row r="2" spans="1:6" ht="18.600000000000001" customHeight="1" thickBot="1">
+    <row r="2" spans="1:6" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="2"/>
@@ -46152,7 +46152,7 @@
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
     </row>
-    <row r="3" spans="1:6" ht="18.600000000000001" customHeight="1">
+    <row r="3" spans="1:6" ht="18" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
@@ -46160,7 +46160,7 @@
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
     </row>
-    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1">
+    <row r="4" spans="1:6" ht="18" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="9"/>
       <c r="C4" s="10"/>
@@ -46168,7 +46168,7 @@
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1">
+    <row r="5" spans="1:6" ht="18" customHeight="1">
       <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
@@ -46176,7 +46176,7 @@
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
     </row>
-    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1">
+    <row r="6" spans="1:6" ht="18" customHeight="1">
       <c r="A6" s="14"/>
       <c r="B6" s="14"/>
       <c r="C6" s="14"/>

--- a/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/OEW001.xlsx
+++ b/nts.uk/uk.com/com.file/nts.uk.file.com.infra/src/main/resources/report/OEW001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\UniversalK\nts.uk\uk.com\com.file\nts.uk.file.com.infra\src\main\resources\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E37E6B1-49D5-4B11-B43A-000E9DB39441}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A20F5A-5E4A-47F6-BEA3-36D326CE071A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{346782B5-7FD7-417C-B439-A78319037E87}"/>
   </bookViews>
@@ -588,9 +588,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="h:mm;@"/>
-  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -614,7 +611,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -624,12 +621,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF9BC2E6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDEBF7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -715,40 +706,10 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -756,6 +717,18 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3375,6 +3348,7 @@
     <sheetNames>
       <sheetName val="仕切価格"/>
       <sheetName val="１．社内ﾈｯﾄﾜｰｸﾊｰﾄﾞｳｪｱ"/>
+      <sheetName val="テーブル定義書（案件番号採番）"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1">
@@ -39726,6 +39700,7 @@
         </row>
       </sheetData>
       <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -46117,32 +46092,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630B207A-625C-4D64-A56D-31A5A83FEE2D}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="12.21875" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" style="13" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="16.44140625" style="13" customWidth="1"/>
-    <col min="7" max="8" width="7.5546875" style="13" customWidth="1"/>
-    <col min="9" max="233" width="7.5546875" style="14" customWidth="1"/>
-    <col min="234" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="13.33203125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="10.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.44140625" style="4" customWidth="1"/>
+    <col min="7" max="233" width="7.5546875" style="4" customWidth="1"/>
+    <col min="234" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1" thickBot="1">
-      <c r="A1" s="15"/>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
     </row>
     <row r="2" spans="1:6" ht="18" customHeight="1" thickBot="1">
       <c r="A2" s="1"/>
@@ -46153,36 +46129,12 @@
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="3"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
